--- a/project7/forecast_produce_sales_segment3.xlsx
+++ b/project7/forecast_produce_sales_segment3.xlsx
@@ -387,19 +387,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="0">
-        <v>7371487.85882329</v>
+        <v>224473.115141326</v>
       </c>
       <c r="D2" s="0">
-        <v>8203498.82249497</v>
+        <v>244036.25347797</v>
       </c>
       <c r="E2" s="0">
-        <v>7915510.58651333</v>
+        <v>237264.763743061</v>
       </c>
       <c r="F2" s="0">
-        <v>6827465.13113325</v>
+        <v>211681.466539592</v>
       </c>
       <c r="G2" s="0">
-        <v>6539476.89515161</v>
+        <v>204909.976804683</v>
       </c>
     </row>
     <row r="3">
@@ -410,19 +410,19 @@
         <v>2</v>
       </c>
       <c r="C3" s="0">
-        <v>7093693.65636726</v>
+        <v>220814.913719902</v>
       </c>
       <c r="D3" s="0">
-        <v>8094044.46360078</v>
+        <v>243046.137472794</v>
       </c>
       <c r="E3" s="0">
-        <v>7747787.89137167</v>
+        <v>235351.129604082</v>
       </c>
       <c r="F3" s="0">
-        <v>6439599.42136284</v>
+        <v>206278.697835723</v>
       </c>
       <c r="G3" s="0">
-        <v>6093342.84913373</v>
+        <v>198583.68996701</v>
       </c>
     </row>
     <row r="4">
@@ -433,19 +433,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="0">
-        <v>8076891.45061729</v>
+        <v>257852.788003249</v>
       </c>
       <c r="D4" s="0">
-        <v>9143732.42359056</v>
+        <v>286886.682543403</v>
       </c>
       <c r="E4" s="0">
-        <v>8774461.26816772</v>
+        <v>276837.031231842</v>
       </c>
       <c r="F4" s="0">
-        <v>7379321.63306687</v>
+        <v>238868.544774655</v>
       </c>
       <c r="G4" s="0">
-        <v>7010050.47764403</v>
+        <v>228818.893463094</v>
       </c>
     </row>
     <row r="5">
@@ -456,19 +456,19 @@
         <v>4</v>
       </c>
       <c r="C5" s="0">
-        <v>7538891.36576523</v>
+        <v>238543.07305751</v>
       </c>
       <c r="D5" s="0">
-        <v>8634060.63664415</v>
+        <v>267974.440705653</v>
       </c>
       <c r="E5" s="0">
-        <v>8254984.06170351</v>
+        <v>257787.20998202</v>
       </c>
       <c r="F5" s="0">
-        <v>6822798.66982695</v>
+        <v>219298.936133</v>
       </c>
       <c r="G5" s="0">
-        <v>6443722.09488631</v>
+        <v>209111.705409367</v>
       </c>
     </row>
     <row r="6">
@@ -479,19 +479,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="0">
-        <v>8835881.00484409</v>
+        <v>275565.933415601</v>
       </c>
       <c r="D6" s="0">
-        <v>9943439.8781599</v>
+        <v>312298.259488872</v>
       </c>
       <c r="E6" s="0">
-        <v>9560074.82637688</v>
+        <v>299583.910458349</v>
       </c>
       <c r="F6" s="0">
-        <v>8111687.18331129</v>
+        <v>251547.956372854</v>
       </c>
       <c r="G6" s="0">
-        <v>7728322.13152827</v>
+        <v>238833.607342331</v>
       </c>
     </row>
     <row r="7">
@@ -502,19 +502,19 @@
         <v>6</v>
       </c>
       <c r="C7" s="0">
-        <v>8702910.59524732</v>
+        <v>278613.164291491</v>
       </c>
       <c r="D7" s="0">
-        <v>9815945.79261736</v>
+        <v>318324.806243271</v>
       </c>
       <c r="E7" s="0">
-        <v>9430685.19261093</v>
+        <v>304579.211277601</v>
       </c>
       <c r="F7" s="0">
-        <v>7975135.99788371</v>
+        <v>252647.117305382</v>
       </c>
       <c r="G7" s="0">
-        <v>7589875.39787729</v>
+        <v>238901.522339712</v>
       </c>
     </row>
     <row r="8">
@@ -525,19 +525,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="0">
-        <v>8478784.33483048</v>
+        <v>278950.576958915</v>
       </c>
       <c r="D8" s="0">
-        <v>9594251.09414869</v>
+        <v>321131.043705324</v>
       </c>
       <c r="E8" s="0">
-        <v>9208148.8450935</v>
+        <v>306530.901710111</v>
       </c>
       <c r="F8" s="0">
-        <v>7749419.82456746</v>
+        <v>251370.252207719</v>
       </c>
       <c r="G8" s="0">
-        <v>7363317.57551227</v>
+        <v>236770.110212506</v>
       </c>
     </row>
     <row r="9">
@@ -548,19 +548,19 @@
         <v>8</v>
       </c>
       <c r="C9" s="0">
-        <v>7606253.43030068</v>
+        <v>244575.86980338</v>
       </c>
       <c r="D9" s="0">
-        <v>8722801.97531171</v>
+        <v>283566.848241238</v>
       </c>
       <c r="E9" s="0">
-        <v>8336325.28220832</v>
+        <v>270070.700245828</v>
       </c>
       <c r="F9" s="0">
-        <v>6876181.57839304</v>
+        <v>219081.039360933</v>
       </c>
       <c r="G9" s="0">
-        <v>6489704.88528964</v>
+        <v>205584.891365522</v>
       </c>
     </row>
     <row r="10">
@@ -571,19 +571,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="0">
-        <v>6545782.4749101</v>
+        <v>214225.214332171</v>
       </c>
       <c r="D10" s="0">
-        <v>7662812.7204995</v>
+        <v>250051.536559116</v>
       </c>
       <c r="E10" s="0">
-        <v>7276169.29389632</v>
+        <v>237650.787301779</v>
       </c>
       <c r="F10" s="0">
-        <v>5815395.65592387</v>
+        <v>190799.641362563</v>
       </c>
       <c r="G10" s="0">
-        <v>5428752.22932069</v>
+        <v>178398.892105226</v>
       </c>
     </row>
     <row r="11">
@@ -594,19 +594,19 @@
         <v>10</v>
       </c>
       <c r="C11" s="0">
-        <v>6748301.27000748</v>
+        <v>213620.918937558</v>
       </c>
       <c r="D11" s="0">
-        <v>7865546.09194459</v>
+        <v>250941.835969952</v>
       </c>
       <c r="E11" s="0">
-        <v>7478828.39292607</v>
+        <v>238023.754922143</v>
       </c>
       <c r="F11" s="0">
-        <v>6017774.1470889</v>
+        <v>189218.082952973</v>
       </c>
       <c r="G11" s="0">
-        <v>5631056.44807038</v>
+        <v>176300.001905164</v>
       </c>
     </row>
     <row r="12">
@@ -617,19 +617,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="0">
-        <v>6963043.72808269</v>
+        <v>223330.017759523</v>
       </c>
       <c r="D12" s="0">
-        <v>8080384.150837</v>
+        <v>263947.932313949</v>
       </c>
       <c r="E12" s="0">
-        <v>7693633.36101571</v>
+        <v>249888.644549085</v>
       </c>
       <c r="F12" s="0">
-        <v>6232454.09514968</v>
+        <v>196771.390969961</v>
       </c>
       <c r="G12" s="0">
-        <v>5845703.30532838</v>
+        <v>182712.103205097</v>
       </c>
     </row>
     <row r="13">
@@ -640,19 +640,19 @@
         <v>12</v>
       </c>
       <c r="C13" s="0">
-        <v>6752773.29972789</v>
+        <v>225313.159432494</v>
       </c>
       <c r="D13" s="0">
-        <v>7870156.31906791</v>
+        <v>267846.457004606</v>
       </c>
       <c r="E13" s="0">
-        <v>7483390.78507122</v>
+        <v>253124.187860195</v>
       </c>
       <c r="F13" s="0">
-        <v>6022155.81438456</v>
+        <v>197502.131004793</v>
       </c>
       <c r="G13" s="0">
-        <v>5635390.28038788</v>
+        <v>182779.861860383</v>
       </c>
     </row>
   </sheetData>
